--- a/Testing_Results_Statistical_Study.xlsx
+++ b/Testing_Results_Statistical_Study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unavarra-my.sharepoint.com/personal/joseantonio_sanz_unavarra_es/Documents/Investigacion/Papers/Articulos/FARCI_dCF1_F2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseantonio.sanz\Documents\GitHub\FARCI_generalizations_Choquet_support_tuning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1544" documentId="13_ncr:1_{F2080585-1E68-4DF6-8668-C6C30F758F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9992EB87-8598-445F-A6DF-94ED6B6F6707}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FC45F8-190C-4421-A381-1CCBF1A27B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testing results" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Summary statistical study IR&gt;=9'!$A$1:$H$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="153">
   <si>
     <t>Dataset</t>
   </si>
@@ -122,22 +121,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>MN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>DIV</t>
     </r>
   </si>
@@ -146,9 +129,6 @@
   </si>
   <si>
     <t>CL</t>
-  </si>
-  <si>
-    <t>FPBC</t>
   </si>
   <si>
     <t>FBD1</t>
@@ -236,70 +216,6 @@
     <t>GM-Fα</t>
   </si>
   <si>
-    <r>
-      <t>FARCI</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Supp</t>
-    </r>
-  </si>
-  <si>
-    <t>FARCISupp + FGL-FBPC</t>
-  </si>
-  <si>
-    <t>FARCI + GM-GBPC</t>
-  </si>
-  <si>
-    <r>
-      <t>FARCISupp + O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>α</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vs. FARCISupp + FGL-FBPC</t>
-    </r>
-  </si>
-  <si>
-    <t>FARCI besides generalizations of the Choquet integral</t>
-  </si>
-  <si>
-    <t>FARCI with Support tuning (FARCISupp) besides generalizations of the Choquet integral</t>
-  </si>
-  <si>
-    <t>FARCI + ODIV vs. FARCI + GM-FBPC</t>
-  </si>
-  <si>
     <t>ID Comparison</t>
   </si>
   <si>
@@ -307,21 +223,6 @@
   </si>
   <si>
     <t>Method</t>
-  </si>
-  <si>
-    <t>FARCISupp</t>
-  </si>
-  <si>
-    <t>FARCI + FNA</t>
-  </si>
-  <si>
-    <t>FARCISupp + GM-Luk</t>
-  </si>
-  <si>
-    <t>FARCI + FNA vs.FARCI + GM-Luk</t>
-  </si>
-  <si>
-    <t>FARCISupp + FBD1 vs. FARCISupp + GM-Luk</t>
   </si>
   <si>
     <t>Inter method comparison:  Aligned Friedman Test and Holm's post-hoc test</t>
@@ -504,9 +405,6 @@
     <t>Comparison FGL-FBPC vs.</t>
   </si>
   <si>
-    <t>Comparison FARCISupp + FGL-FBPC vs.</t>
-  </si>
-  <si>
     <t>Averaging generalization</t>
   </si>
   <si>
@@ -559,17 +457,678 @@
     <t>Rejected</t>
   </si>
   <si>
-    <t>FARCI + Min</t>
+    <t>FARCI-Supp</t>
   </si>
   <si>
-    <t>FARCI + Prod</t>
+    <t xml:space="preserve"> Rejected</t>
   </si>
   <si>
-    <t>FARCI + Ham</t>
+    <t>ALL SIMILAR</t>
+  </si>
+  <si>
+    <t>FARCI+ (Min)</t>
+  </si>
+  <si>
+    <t>FARCI+</t>
+  </si>
+  <si>
+    <t>FARCI - Cᵍₘ</t>
+  </si>
+  <si>
+    <t>FARCI - Cᵍₘ (Min)</t>
   </si>
   <si>
     <r>
-      <t>FARCI + O</t>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BPC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BD1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NA2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Min</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BPC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GM-F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BPC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BD1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI - Cᵍₘ (F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) vs.FARCI - Cᵍₘ (GM-Luk)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI+ F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BD1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vs. FARCI+ (GM-Luk)</t>
+    </r>
+  </si>
+  <si>
+    <t>FARCI - Cᵍₘ (FNA)</t>
+  </si>
+  <si>
+    <t>FARCI+(GM-Luk)</t>
+  </si>
+  <si>
+    <t>FARCI+ (GM-Luk)</t>
+  </si>
+  <si>
+    <t>FARCI - Cᵍₘ (Prod)</t>
+  </si>
+  <si>
+    <t>FARCI - Cᵍₘ (Ham)</t>
+  </si>
+  <si>
+    <r>
+      <t>FARCI - Cᵍₘ (O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI - Cᵍₘ (O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mM)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI - Cᵍₘ (O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>α)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI - Cᵍₘ (O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIV)</t>
+    </r>
+  </si>
+  <si>
+    <t>FARCI - Cᵍₘ (CF)</t>
+  </si>
+  <si>
+    <t>FARCI - Cᵍₘ (CL)</t>
+  </si>
+  <si>
+    <r>
+      <t>FARCI - Cᵍₘ (F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BPC)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI - Cᵍₘ (F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BD1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI - Cᵍₘ (F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>FARCI - Cᵍₘ (GM)</t>
+  </si>
+  <si>
+    <t>FARCI - Cᵍₘ (HM)</t>
+  </si>
+  <si>
+    <t>FARCI - Cᵍₘ (Sine)</t>
+  </si>
+  <si>
+    <r>
+      <t>FARCI - Cᵍₘ (O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI - Cᵍₘ (F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI - Cᵍₘ (F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NA2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>FARCI - Cᵍₘ (GM-Luk)</t>
+  </si>
+  <si>
+    <r>
+      <t>FARCI - Cᵍₘ (F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Min)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI - Cᵍₘ (F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI - Cᵍₘ (GM-F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI - Cᵍₘ (GM-F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>FARCI+ (Prod)</t>
+  </si>
+  <si>
+    <t>FARCI+ (Ham)</t>
+  </si>
+  <si>
+    <t>FARCI+ (Oα)</t>
+  </si>
+  <si>
+    <t>FARCI+ (CF)</t>
+  </si>
+  <si>
+    <t>FARCI+ (CL)</t>
+  </si>
+  <si>
+    <t>FARCI+ (GM)</t>
+  </si>
+  <si>
+    <t>FARCI+ (HM)</t>
+  </si>
+  <si>
+    <t>FARCI+ (Sine)</t>
+  </si>
+  <si>
+    <t>FARCI+ (GM-Fα)</t>
+  </si>
+  <si>
+    <r>
+      <t>FARCI+ (O</t>
     </r>
     <r>
       <rPr>
@@ -582,10 +1141,20 @@
       </rPr>
       <t>B</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <r>
-      <t>FARCI + O</t>
+      <t>FARCI+ (O</t>
     </r>
     <r>
       <rPr>
@@ -596,38 +1165,407 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>MN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>FARCI + O</t>
+      <t>mM</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>α</t>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t>FARCI + CF</t>
-  </si>
-  <si>
-    <t>FARCI + CL</t>
-  </si>
-  <si>
-    <t>FARCI + FPBC</t>
-  </si>
-  <si>
-    <t>FARCI + FBD1</t>
+    <r>
+      <t>FARCI+ (O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <r>
-      <t>FARCI + CC</t>
+      <t>FARCI+ (F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI+ (F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BD1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI+ (F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI+ (O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI+ (F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI+ (F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NA2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI+ (F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Min)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI+ (F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI+ (GM-F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>FARCI - Cᵍₘ (Oα)</t>
+  </si>
+  <si>
+    <t>FARCI - Cᵍₘ (GM-Fα)</t>
+  </si>
+  <si>
+    <r>
+      <t>FARCI - Cᵍₘ (O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI - Cᵍₘ (O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI - Cᵍₘ (O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI - Cᵍₘ (F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI - Cᵍₘ (CC</t>
     </r>
     <r>
       <rPr>
@@ -640,19 +1578,20 @@
       </rPr>
       <t>min</t>
     </r>
-  </si>
-  <si>
-    <t>FARCI + GM</t>
-  </si>
-  <si>
-    <t>FARCI + HM</t>
-  </si>
-  <si>
-    <t>FARCI + Sine</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <r>
-      <t>FARCI + O</t>
+      <t>FARCI+ (CC</t>
     </r>
     <r>
       <rPr>
@@ -663,27 +1602,177 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>RS</t>
+      <t>min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t>FARCI + FGL</t>
-  </si>
-  <si>
-    <t>FARCI + FNA2</t>
-  </si>
-  <si>
-    <t>FARCI + GM-Luk</t>
-  </si>
-  <si>
-    <t>FARCI + FGL-Min</t>
-  </si>
-  <si>
-    <t>FARCI + FGL-FBPC</t>
+    <r>
+      <t>FARCI+ (F</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-F</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BPC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) WINS</t>
+    </r>
   </si>
   <si>
     <r>
-      <t>FARCI + GM-F</t>
+      <t>GM-F</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BPC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-F</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BPC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI - Cᵍₘ (O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) vs. FARCI - Cᵍₘ (GM-F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARCI+ (O</t>
     </r>
     <r>
       <rPr>
@@ -692,110 +1781,196 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>α</t>
+      <t>α)</t>
     </r>
-  </si>
-  <si>
-    <t>FARCI + GM-FBPC</t>
-  </si>
-  <si>
     <r>
-      <t>FARCI + O</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vs. FARCI+ (F</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>DIV</t>
+      <t>GL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t>FARCI-Supp</t>
+    <r>
+      <t>FARCI - Cᵍₘ (GM-G</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
-    <t>FARCI-Supp + Min</t>
+    <r>
+      <t>FARCI+ (F</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-F</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BPC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
-    <t>FARCI-Supp + Prod</t>
+    <t>FARCI - Cᵍₘ (GM-GBPC)</t>
   </si>
   <si>
-    <t>FARCI-Supp + Ham</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + OB</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + OMN</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + Oα</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + ODIV</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + CF</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + CL</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + FPBC</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + FBD1</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + FNA</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + CCmin</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + GM</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + HM</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + Sine</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + ORS</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + FGL</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + FNA2</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + GM-Luk</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + FGL-Min</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + FGL-FBPC</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + GM-Fα</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + GM-FBPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rejected</t>
-  </si>
-  <si>
-    <t>FARCI-Supp + FGL-FBPC WINS</t>
-  </si>
-  <si>
-    <t>ALL SIMILAR</t>
+    <r>
+      <t>Comparison FARCI+ (F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) vs.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -806,7 +1981,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -921,6 +2096,15 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1353,7 +2537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1611,6 +2795,115 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1663,166 +2956,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3330,7 +4466,7 @@
                   <c:v>OB</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>OMN</c:v>
+                  <c:v>OmM</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Oα</c:v>
@@ -3345,7 +4481,7 @@
                   <c:v>CL</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>FPBC</c:v>
+                  <c:v>FBPC</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>FBD1</c:v>
@@ -3742,13 +4878,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>FARCI + FNA</c:v>
+                  <c:v>FARCI - Cᵍₘ (FNA)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FARCISupp + GM-Luk</c:v>
+                  <c:v>FARCI+(GM-Luk)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FARCISupp</c:v>
+                  <c:v>FARCI-Supp</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>FARCI</c:v>
@@ -4948,7 +6084,7 @@
                   <c:v>OB</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>OMN</c:v>
+                  <c:v>OmM</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Oα</c:v>
@@ -4963,7 +6099,7 @@
                   <c:v>CL</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>FPBC</c:v>
+                  <c:v>FBPC</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>FBD1</c:v>
@@ -5360,13 +6496,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>FARCI + GM-GBPC</c:v>
+                  <c:v>FARCI - Cᵍₘ (GM-GBPC)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FARCISupp + FGL-FBPC</c:v>
+                  <c:v>FARCI+ (FGL-FBPC)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FARCISupp</c:v>
+                  <c:v>FARCI-Supp</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>FARCI</c:v>
@@ -5742,7 +6878,7 @@
                   <c:v>OB</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>OMN</c:v>
+                  <c:v>OmM</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Oα</c:v>
@@ -5757,7 +6893,7 @@
                   <c:v>CL</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>FPBC</c:v>
+                  <c:v>FBPC</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>FBD1</c:v>
@@ -6166,7 +7302,7 @@
                   <c:v>OB</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>OMN</c:v>
+                  <c:v>OmM</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Oα</c:v>
@@ -6181,7 +7317,7 @@
                   <c:v>CL</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>FPBC</c:v>
+                  <c:v>FBPC</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>FBD1</c:v>
@@ -12953,10 +14089,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -13246,10 +14378,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541D96B4-B92F-4F9C-8B22-6FAF6A4F1D5A}">
   <dimension ref="A1:BA71"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AL1" sqref="AL1"/>
-      <selection pane="bottomLeft" activeCell="BA28" sqref="BA28"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13306,65 +14438,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="150" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="150"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="150"/>
+      <c r="T1" s="150"/>
+      <c r="U1" s="150"/>
+      <c r="V1" s="150"/>
+      <c r="W1" s="150"/>
+      <c r="X1" s="150"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="150"/>
+      <c r="AB1" s="150"/>
+      <c r="AC1" s="150"/>
+      <c r="AD1" s="150"/>
+      <c r="AE1" s="150"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="150"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="150"/>
+      <c r="AJ1" s="150"/>
+      <c r="AK1" s="150"/>
+      <c r="AL1" s="150"/>
+      <c r="AM1" s="150"/>
+      <c r="AN1" s="150"/>
+      <c r="AO1" s="150"/>
+      <c r="AP1" s="150"/>
+      <c r="AQ1" s="150"/>
+      <c r="AR1" s="150"/>
+      <c r="AS1" s="150"/>
+      <c r="AT1" s="150"/>
+      <c r="AU1" s="150"/>
+      <c r="AV1" s="150"/>
+      <c r="AW1" s="151"/>
+      <c r="AX1" s="152" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="105"/>
-      <c r="AG1" s="105"/>
-      <c r="AH1" s="105"/>
-      <c r="AI1" s="105"/>
-      <c r="AJ1" s="105"/>
-      <c r="AK1" s="105"/>
-      <c r="AL1" s="105"/>
-      <c r="AM1" s="105"/>
-      <c r="AN1" s="105"/>
-      <c r="AO1" s="105"/>
-      <c r="AP1" s="105"/>
-      <c r="AQ1" s="105"/>
-      <c r="AR1" s="105"/>
-      <c r="AS1" s="105"/>
-      <c r="AT1" s="105"/>
-      <c r="AU1" s="105"/>
-      <c r="AV1" s="105"/>
-      <c r="AW1" s="106"/>
-      <c r="AX1" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY1" s="109" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ1" s="111" t="s">
+      <c r="AZ1" s="156" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13379,70 +14511,70 @@
         <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="I2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="R2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="Z2" s="7" t="s">
         <v>10</v>
@@ -13451,76 +14583,76 @@
         <v>11</v>
       </c>
       <c r="AB2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AC2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="AG2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AH2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AN2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AP2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AN2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AT2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS2" s="5" t="s">
+      <c r="AU2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AT2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU2" s="5" t="s">
+      <c r="AV2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AV2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AW2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AX2" s="108"/>
-      <c r="AY2" s="110" t="s">
+      <c r="AX2" s="153"/>
+      <c r="AY2" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="AZ2" s="112" t="s">
+      <c r="AZ2" s="157" t="s">
         <v>2</v>
       </c>
     </row>
@@ -23955,7 +25087,7 @@
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B69" s="24">
         <v>0.65183767505584</v>
@@ -24111,7 +25243,7 @@
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B70" s="18">
         <v>0.78052827453692908</v>
@@ -24267,7 +25399,7 @@
     </row>
     <row r="71" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B71" s="21">
         <v>0.5874923753152953</v>
@@ -24834,8 +25966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7200EE6-2A16-45BB-86B3-4EFD50C79791}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:B50"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24849,30 +25981,30 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="116" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="117"/>
+      <c r="A3" s="161" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="162"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="113" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="115"/>
+      <c r="E4" s="158" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="160"/>
     </row>
     <row r="5" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
@@ -24882,10 +26014,10 @@
         <v>256.5</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>6</v>
@@ -24908,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G6" s="42">
         <v>3.407324</v>
@@ -24923,7 +26055,7 @@
     </row>
     <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B7" s="33">
         <v>365.12</v>
@@ -24956,7 +26088,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="G8" s="45">
         <v>1.4938689999999999</v>
@@ -24971,7 +26103,7 @@
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="B9" s="33">
         <v>297.7</v>
@@ -24993,7 +26125,7 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -25004,7 +26136,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="G10" s="45">
         <v>1.3748629999999999</v>
@@ -25019,7 +26151,7 @@
     </row>
     <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B11" s="46">
         <v>245.07</v>
@@ -25028,7 +26160,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="G11" s="45">
         <v>1.2110270000000001</v>
@@ -25043,7 +26175,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="33">
         <v>285.33999999999997</v>
@@ -25052,7 +26184,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="45">
         <v>1.1429769999999999</v>
@@ -25067,7 +26199,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="33">
         <v>274.14</v>
@@ -25076,7 +26208,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="45">
         <v>0.82498199999999999</v>
@@ -25091,7 +26223,7 @@
     </row>
     <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B14" s="33">
         <v>293.51</v>
@@ -25100,7 +26232,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G14" s="45">
         <v>0.81917700000000004</v>
@@ -25113,9 +26245,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B15" s="33">
         <v>287.74</v>
@@ -25137,9 +26269,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B16" s="33">
         <v>257.27999999999997</v>
@@ -25148,7 +26280,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="G16" s="45">
         <v>0.34669899999999998</v>
@@ -25163,7 +26295,7 @@
     </row>
     <row r="17" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="43">
         <v>273.93</v>
@@ -25192,30 +26324,30 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="116" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="117"/>
-      <c r="E19" s="113" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="115"/>
+      <c r="A19" s="161" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="162"/>
+      <c r="E19" s="158" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="160"/>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G20" s="38" t="s">
         <v>6</v>
@@ -25229,7 +26361,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="41">
         <v>310.83</v>
@@ -25238,7 +26370,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G21" s="42">
         <v>3.8749069999999999</v>
@@ -25251,9 +26383,9 @@
         <v>Reject H0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="33">
         <v>262.89</v>
@@ -25262,7 +26394,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="G22" s="45">
         <v>3.8154569999999999</v>
@@ -25277,7 +26409,7 @@
     </row>
     <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" s="33">
         <v>268.97000000000003</v>
@@ -25286,7 +26418,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G23" s="45">
         <v>2.9484810000000001</v>
@@ -25301,7 +26433,7 @@
     </row>
     <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" s="33">
         <v>283.2</v>
@@ -25310,7 +26442,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G24" s="45">
         <v>2.470977</v>
@@ -25323,9 +26455,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="B25" s="33">
         <v>309.06</v>
@@ -25334,7 +26466,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G25" s="45">
         <v>2.2670949999999999</v>
@@ -25347,9 +26479,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B26" s="33">
         <v>216.18</v>
@@ -25358,7 +26490,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G26" s="45">
         <v>0.93481000000000003</v>
@@ -25371,9 +26503,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="33">
         <v>199.12</v>
@@ -25382,7 +26514,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="G27" s="45">
         <v>0.70082199999999994</v>
@@ -25395,9 +26527,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B28" s="33">
         <v>200.42</v>
@@ -25406,7 +26538,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="G28" s="45">
         <v>0.17225199999999999</v>
@@ -25419,9 +26551,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B29" s="33">
         <v>198.39</v>
@@ -25430,7 +26562,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G29" s="45">
         <v>0.12880800000000001</v>
@@ -25443,9 +26575,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" s="33">
         <v>223.16</v>
@@ -25454,7 +26586,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G30" s="44">
         <v>0.104037</v>
@@ -25467,9 +26599,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="37" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="B31" s="47">
         <v>195.28</v>
@@ -25477,35 +26609,35 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="116" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="117"/>
-      <c r="E36" s="113" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="115"/>
+      <c r="A36" s="161" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="162"/>
+      <c r="E36" s="158" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="160"/>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B37" s="32" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>6</v>
@@ -25528,7 +26660,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G38" s="42">
         <v>2.3091759999999999</v>
@@ -25567,7 +26699,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B40" s="33">
         <v>320.8</v>
@@ -25600,7 +26732,7 @@
         <v>3</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G41" s="45">
         <v>2.0469750000000002</v>
@@ -25615,7 +26747,7 @@
     </row>
     <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="B42" s="33">
         <v>285.61</v>
@@ -25624,7 +26756,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="G42" s="45">
         <v>1.5538559999999999</v>
@@ -25637,9 +26769,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B43" s="46">
         <v>239.43</v>
@@ -25648,7 +26780,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="G43" s="45">
         <v>1.4583930000000001</v>
@@ -25663,7 +26795,7 @@
     </row>
     <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="33">
         <v>282.2</v>
@@ -25672,7 +26804,7 @@
         <v>6</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="G44" s="45">
         <v>1.310683</v>
@@ -25687,7 +26819,7 @@
     </row>
     <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" s="33">
         <v>311.56</v>
@@ -25696,7 +26828,7 @@
         <v>7</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G45" s="45">
         <v>1.21393</v>
@@ -25711,7 +26843,7 @@
     </row>
     <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" s="33">
         <v>276.55</v>
@@ -25720,7 +26852,7 @@
         <v>8</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G46" s="45">
         <v>1.0755729999999999</v>
@@ -25733,9 +26865,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B47" s="33">
         <v>294.18</v>
@@ -25744,7 +26876,7 @@
         <v>9</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G47" s="45">
         <v>1.05332</v>
@@ -25757,9 +26889,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B48" s="33">
         <v>265.25</v>
@@ -25768,7 +26900,7 @@
         <v>10</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="G48" s="45">
         <v>0.73274399999999995</v>
@@ -25783,7 +26915,7 @@
     </row>
     <row r="49" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B49" s="33">
         <v>290.82</v>
@@ -25807,7 +26939,7 @@
     </row>
     <row r="50" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B50" s="43">
         <v>277.33</v>
@@ -25815,30 +26947,30 @@
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="116" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="117"/>
-      <c r="E52" s="113" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" s="114"/>
-      <c r="G52" s="114"/>
-      <c r="H52" s="114"/>
-      <c r="I52" s="115"/>
+      <c r="A52" s="161" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="162"/>
+      <c r="E52" s="158" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="159"/>
+      <c r="G52" s="159"/>
+      <c r="H52" s="159"/>
+      <c r="I52" s="160"/>
     </row>
     <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="32" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B53" s="32" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>6</v>
@@ -25852,7 +26984,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B54" s="41">
         <v>276.72000000000003</v>
@@ -25861,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G54" s="42">
         <v>3.97742</v>
@@ -25876,7 +27008,7 @@
     </row>
     <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B55" s="33">
         <v>287.73</v>
@@ -25885,7 +27017,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G55" s="45">
         <v>3.7910680000000001</v>
@@ -25900,7 +27032,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B56" s="33">
         <v>240.45</v>
@@ -25909,7 +27041,7 @@
         <v>2</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G56" s="45">
         <v>3.6081449999999999</v>
@@ -25924,7 +27056,7 @@
     </row>
     <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B57" s="33">
         <v>282.17</v>
@@ -25933,7 +27065,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="G57" s="45">
         <v>2.9168509999999999</v>
@@ -25946,9 +27078,9 @@
         <v>Reject H0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="B58" s="33">
         <v>256.10000000000002</v>
@@ -25957,7 +27089,7 @@
         <v>4</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="G58" s="45">
         <v>2.7499340000000001</v>
@@ -25970,9 +27102,9 @@
         <v>Reject H0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B59" s="33">
         <v>249.98</v>
@@ -25981,7 +27113,7 @@
         <v>5</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="G59" s="45">
         <v>2.7114440000000002</v>
@@ -25996,7 +27128,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B60" s="33">
         <v>241.92</v>
@@ -26005,7 +27137,7 @@
         <v>6</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G60" s="45">
         <v>2.441252</v>
@@ -26018,9 +27150,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B61" s="33">
         <v>251.12</v>
@@ -26029,7 +27161,7 @@
         <v>7</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G61" s="45">
         <v>2.3920919999999999</v>
@@ -26042,9 +27174,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A62" s="36" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="B62" s="46">
         <v>169.12</v>
@@ -26053,7 +27185,7 @@
         <v>8</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="G62" s="45">
         <v>1.9969030000000001</v>
@@ -26068,7 +27200,7 @@
     </row>
     <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B63" s="33">
         <v>183.51</v>
@@ -26077,7 +27209,7 @@
         <v>9</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G63" s="44">
         <v>0.482458</v>
@@ -26090,9 +27222,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B64" s="43">
         <v>228.67</v>
@@ -26100,13 +27232,13 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="29" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="38" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B68" s="38" t="s">
         <v>8</v>
@@ -26121,9 +27253,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="B69" s="41">
         <v>305</v>
@@ -26139,9 +27271,9 @@
         <v>Reject H0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="8" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="B70" s="43">
         <v>224.5</v>
@@ -26159,35 +27291,35 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="29" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="116" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="117"/>
-      <c r="E75" s="113" t="s">
-        <v>77</v>
-      </c>
-      <c r="F75" s="114"/>
-      <c r="G75" s="114"/>
-      <c r="H75" s="114"/>
-      <c r="I75" s="115"/>
-    </row>
-    <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="161" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" s="162"/>
+      <c r="E75" s="158" t="s">
+        <v>62</v>
+      </c>
+      <c r="F75" s="159"/>
+      <c r="G75" s="159"/>
+      <c r="H75" s="159"/>
+      <c r="I75" s="160"/>
+    </row>
+    <row r="76" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="34" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B76" s="32" t="s">
         <v>3</v>
       </c>
       <c r="E76" s="38" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F76" s="38" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>6</v>
@@ -26201,7 +27333,7 @@
     </row>
     <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="B77" s="41">
         <v>78.98</v>
@@ -26210,7 +27342,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="40" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="G77" s="42">
         <v>3.987762</v>
@@ -26223,9 +27355,9 @@
         <v>Reject H0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A78" s="36" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="B78" s="46">
         <v>69.09</v>
@@ -26249,7 +27381,7 @@
     </row>
     <row r="79" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="35" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B79" s="33">
         <v>112.41</v>
@@ -26258,7 +27390,7 @@
         <v>2</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="G79" s="44">
         <v>0.91011399999999998</v>
@@ -26308,8 +27440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAABA76-53E0-45EB-A92D-B08D3514DF00}">
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:H56"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26320,42 +27452,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="118" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="119"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="121" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="176"/>
+      <c r="A1" s="163" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="164"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="166" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="164"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="166" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="168"/>
       <c r="I1" s="54"/>
       <c r="J1" s="54"/>
       <c r="K1" s="54"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B2" s="61">
         <v>256.5</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D2" s="92"/>
       <c r="E2" s="57"/>
       <c r="F2" s="91"/>
       <c r="G2" s="92"/>
-      <c r="H2" s="177"/>
+      <c r="H2" s="66"/>
       <c r="I2" s="66"/>
       <c r="J2" s="66"/>
       <c r="K2" s="66"/>
@@ -26363,19 +27495,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B3" s="55">
         <v>297.33</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D3" s="93"/>
       <c r="E3" s="59"/>
       <c r="F3" s="94"/>
       <c r="G3" s="99"/>
-      <c r="H3" s="178"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="67"/>
       <c r="J3" s="67"/>
       <c r="K3" s="67"/>
@@ -26384,19 +27516,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B4" s="55">
         <v>365.12</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="D4" s="95"/>
       <c r="E4" s="30"/>
       <c r="F4" s="91"/>
       <c r="G4" s="92"/>
-      <c r="H4" s="179"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="57"/>
       <c r="J4" s="57"/>
       <c r="K4" s="57"/>
@@ -26405,19 +27537,19 @@
     </row>
     <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="B5" s="55">
         <v>317.26</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D5" s="95"/>
       <c r="E5" s="30"/>
       <c r="F5" s="91"/>
       <c r="G5" s="92"/>
-      <c r="H5" s="179"/>
+      <c r="H5" s="57"/>
       <c r="I5" s="57"/>
       <c r="J5" s="57"/>
       <c r="K5" s="57"/>
@@ -26426,19 +27558,19 @@
     </row>
     <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="B6" s="55">
         <v>297.7</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D6" s="95"/>
       <c r="E6" s="30"/>
       <c r="F6" s="91"/>
       <c r="G6" s="92"/>
-      <c r="H6" s="179"/>
+      <c r="H6" s="57"/>
       <c r="I6" s="57"/>
       <c r="J6" s="57"/>
       <c r="K6" s="57"/>
@@ -26447,34 +27579,33 @@
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="B7" s="55">
         <v>273.57</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D7" s="96"/>
       <c r="E7" s="60"/>
       <c r="F7" s="97"/>
       <c r="G7" s="95"/>
-      <c r="H7" s="152"/>
       <c r="M7" s="59"/>
     </row>
     <row r="8" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="77" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="B8" s="78">
         <v>245.07</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="190"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="149"/>
       <c r="E8" s="72"/>
       <c r="F8" s="97"/>
       <c r="G8" s="92"/>
-      <c r="H8" s="179"/>
+      <c r="H8" s="57"/>
       <c r="I8" s="57"/>
       <c r="J8" s="57"/>
       <c r="K8" s="57"/>
@@ -26482,19 +27613,19 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B9" s="55">
         <v>285.33999999999997</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D9" s="98"/>
       <c r="E9" s="71"/>
       <c r="F9" s="97"/>
       <c r="G9" s="92"/>
-      <c r="H9" s="179"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="57"/>
       <c r="J9" s="57"/>
       <c r="K9" s="57"/>
@@ -26502,79 +27633,79 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B10" s="55">
         <v>274.14</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D10" s="95"/>
       <c r="E10" s="71"/>
       <c r="F10" s="97"/>
       <c r="G10" s="92"/>
-      <c r="H10" s="179"/>
+      <c r="H10" s="57"/>
       <c r="I10" s="57"/>
       <c r="J10" s="57"/>
       <c r="K10" s="57"/>
       <c r="M10" s="59"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="B11" s="55">
         <v>293.51</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D11" s="95"/>
       <c r="E11" s="71"/>
       <c r="F11" s="91"/>
       <c r="G11" s="92"/>
-      <c r="H11" s="179"/>
+      <c r="H11" s="57"/>
       <c r="I11" s="57"/>
       <c r="J11" s="57"/>
       <c r="K11" s="57"/>
       <c r="M11" s="59"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B12" s="55">
         <v>287.74</v>
       </c>
       <c r="C12" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D12" s="95"/>
       <c r="E12" s="71"/>
       <c r="F12" s="91"/>
       <c r="G12" s="92"/>
-      <c r="H12" s="179"/>
+      <c r="H12" s="57"/>
       <c r="I12" s="57"/>
       <c r="J12" s="57"/>
       <c r="K12" s="57"/>
       <c r="M12" s="59"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="B13" s="55">
         <v>257.27999999999997</v>
       </c>
       <c r="C13" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D13" s="95"/>
       <c r="E13" s="71"/>
       <c r="F13" s="91"/>
       <c r="G13" s="92"/>
-      <c r="H13" s="179"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="57"/>
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
@@ -26582,19 +27713,19 @@
     </row>
     <row r="14" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="17" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="B14" s="63">
         <v>273.93</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D14" s="95"/>
       <c r="E14" s="71"/>
       <c r="F14" s="91"/>
       <c r="G14" s="92"/>
-      <c r="H14" s="179"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="57"/>
       <c r="J14" s="57"/>
       <c r="K14" s="57"/>
@@ -26612,7 +27743,7 @@
         <v>2.6599999999999999E-2</v>
       </c>
       <c r="G15" s="92"/>
-      <c r="H15" s="179"/>
+      <c r="H15" s="57"/>
       <c r="I15" s="57"/>
       <c r="J15" s="57"/>
       <c r="K15" s="57"/>
@@ -26621,21 +27752,21 @@
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B16" s="61">
         <v>310.83</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="D16" s="95"/>
       <c r="E16" s="85">
         <v>685</v>
       </c>
-      <c r="F16" s="150"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="181"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="140"/>
       <c r="I16" s="57"/>
       <c r="J16" s="57"/>
       <c r="K16" s="57"/>
@@ -26644,19 +27775,19 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B17" s="55">
         <v>262.89</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D17" s="95"/>
       <c r="E17" s="73"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="179"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="57"/>
       <c r="I17" s="57"/>
       <c r="J17" s="57"/>
       <c r="K17" s="57"/>
@@ -26665,19 +27796,19 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B18" s="55">
         <v>268.97000000000003</v>
       </c>
       <c r="C18" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D18" s="95"/>
       <c r="E18" s="73"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="179"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="57"/>
       <c r="I18" s="57"/>
       <c r="J18" s="57"/>
       <c r="K18" s="57"/>
@@ -26685,59 +27816,59 @@
     </row>
     <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B19" s="55">
         <v>283.2</v>
       </c>
       <c r="C19" s="90" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="D19" s="95"/>
       <c r="E19" s="73"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="179"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="57"/>
       <c r="I19" s="57"/>
       <c r="J19" s="57"/>
       <c r="K19" s="57"/>
       <c r="M19" s="65"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B20" s="55">
         <v>309.06</v>
       </c>
       <c r="C20" s="90" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="D20" s="95"/>
       <c r="E20" s="74"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="179"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="57"/>
       <c r="I20" s="57"/>
       <c r="J20" s="57"/>
       <c r="K20" s="57"/>
       <c r="M20" s="65"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B21" s="55">
         <v>216.18</v>
       </c>
       <c r="C21" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D21" s="95"/>
       <c r="E21" s="73"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="177"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="66"/>
       <c r="I21" s="66"/>
       <c r="J21" s="66"/>
       <c r="K21" s="66"/>
@@ -26745,59 +27876,59 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B22" s="55">
         <v>199.12</v>
       </c>
       <c r="C22" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D22" s="95"/>
       <c r="E22" s="73"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="179"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="57"/>
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
       <c r="K22" s="57"/>
       <c r="M22" s="65"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B23" s="55">
         <v>200.42</v>
       </c>
       <c r="C23" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D23" s="95"/>
       <c r="E23" s="73"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="179"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="57"/>
       <c r="I23" s="57"/>
       <c r="J23" s="57"/>
       <c r="K23" s="57"/>
       <c r="M23" s="65"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B24" s="55">
         <v>198.39</v>
       </c>
       <c r="C24" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D24" s="95"/>
       <c r="E24" s="73"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="179"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="57"/>
       <c r="I24" s="57"/>
       <c r="J24" s="57"/>
       <c r="K24" s="57"/>
@@ -26805,37 +27936,37 @@
     </row>
     <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="B25" s="55">
         <v>223.16</v>
       </c>
       <c r="C25" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D25" s="95"/>
       <c r="E25" s="73"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="179"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="57"/>
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="K25" s="57"/>
       <c r="M25" s="65"/>
     </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="101" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B26" s="76">
         <v>195.28</v>
       </c>
-      <c r="C26" s="188"/>
-      <c r="D26" s="188"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
       <c r="E26" s="75"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="179"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="57"/>
       <c r="I26" s="57"/>
       <c r="J26" s="57"/>
       <c r="K26" s="57"/>
@@ -26847,9 +27978,9 @@
       <c r="C27" s="91"/>
       <c r="D27" s="95"/>
       <c r="E27" s="57"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="179"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="57"/>
       <c r="I27" s="57"/>
       <c r="J27" s="57"/>
       <c r="K27" s="57"/>
@@ -26857,19 +27988,19 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="B28" s="61">
         <v>311.82</v>
       </c>
       <c r="C28" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D28" s="95"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="179"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="57"/>
       <c r="I28" s="57"/>
       <c r="J28" s="57"/>
       <c r="K28" s="57"/>
@@ -26877,22 +28008,22 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B29" s="62">
         <v>320.33</v>
       </c>
       <c r="C29" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D29" s="95"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="158">
+      <c r="F29" s="65"/>
+      <c r="G29" s="123">
         <v>78.98</v>
       </c>
-      <c r="H29" s="179" t="s">
-        <v>83</v>
+      <c r="H29" s="57" t="s">
+        <v>68</v>
       </c>
       <c r="I29" s="57"/>
       <c r="J29" s="57"/>
@@ -26902,216 +28033,214 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B30" s="62">
         <v>320.8</v>
       </c>
       <c r="C30" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D30" s="95"/>
       <c r="E30" s="30"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="179"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="57"/>
       <c r="I30" s="57"/>
       <c r="J30" s="57"/>
       <c r="K30" s="57"/>
       <c r="M30" s="65"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B31" s="62">
         <v>248.62</v>
       </c>
       <c r="C31" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D31" s="95"/>
       <c r="E31" s="30"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="152"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="122"/>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B32" s="62">
         <v>285.61</v>
       </c>
       <c r="C32" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D32" s="95"/>
       <c r="E32" s="30"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="179"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="57"/>
       <c r="I32" s="57"/>
       <c r="J32" s="57"/>
       <c r="M32" s="30"/>
     </row>
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="104" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B33" s="78">
         <v>239.43</v>
       </c>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
       <c r="E33" s="72"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="179"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="57"/>
       <c r="I33" s="57"/>
       <c r="J33" s="57"/>
       <c r="M33" s="30"/>
       <c r="N33" s="68"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="69" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B34" s="62">
         <v>282.2</v>
       </c>
       <c r="C34" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D34" s="95"/>
       <c r="E34" s="71"/>
-      <c r="F34" s="130"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="179"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="57"/>
       <c r="I34" s="57"/>
       <c r="J34" s="57"/>
       <c r="M34" s="30"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B35" s="62">
         <v>311.56</v>
       </c>
       <c r="C35" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D35" s="95"/>
       <c r="E35" s="71"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="179"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="57"/>
       <c r="I35" s="57"/>
       <c r="J35" s="57"/>
       <c r="M35" s="30"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B36" s="62">
         <v>276.55</v>
       </c>
       <c r="C36" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D36" s="95"/>
       <c r="E36" s="71"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="155"/>
-      <c r="H36" s="179"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="57"/>
       <c r="I36" s="57"/>
       <c r="J36" s="57"/>
       <c r="M36" s="30"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B37" s="62">
         <v>294.18</v>
       </c>
       <c r="C37" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D37" s="95"/>
       <c r="E37" s="79"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="155"/>
-      <c r="H37" s="179"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="57"/>
       <c r="I37" s="57"/>
       <c r="J37" s="57"/>
       <c r="M37" s="30"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B38" s="62">
         <v>265.25</v>
       </c>
       <c r="C38" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D38" s="95"/>
       <c r="E38" s="71"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="179"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="57"/>
       <c r="I38" s="57"/>
       <c r="J38" s="57"/>
       <c r="M38" s="30"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B39" s="62">
         <v>290.82</v>
       </c>
       <c r="C39" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D39" s="95"/>
       <c r="E39" s="71"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="155"/>
-      <c r="H39" s="179"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="57"/>
       <c r="I39" s="57"/>
       <c r="J39" s="57"/>
       <c r="M39" s="30"/>
     </row>
-    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="17" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B40" s="63">
         <v>277.33</v>
       </c>
       <c r="C40" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D40" s="95"/>
       <c r="E40" s="71">
         <v>224.5</v>
       </c>
-      <c r="F40" s="130">
+      <c r="F40" s="30">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="G40" s="157"/>
-      <c r="H40" s="152"/>
+      <c r="G40" s="122"/>
       <c r="I40" s="57"/>
       <c r="J40" s="57"/>
       <c r="M40" s="30"/>
     </row>
-    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="30"/>
       <c r="B41" s="56"/>
       <c r="C41" s="91"/>
@@ -27119,12 +28248,12 @@
       <c r="E41" s="80">
         <v>765.5</v>
       </c>
-      <c r="F41" s="166"/>
-      <c r="G41" s="189">
+      <c r="F41" s="131"/>
+      <c r="G41" s="148">
         <v>69.09</v>
       </c>
-      <c r="H41" s="180" t="s">
-        <v>134</v>
+      <c r="H41" s="139" t="s">
+        <v>144</v>
       </c>
       <c r="I41" s="57"/>
       <c r="J41" s="57"/>
@@ -27132,116 +28261,116 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B42" s="61">
         <v>276.72000000000003</v>
       </c>
       <c r="C42" s="91" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D42" s="95"/>
       <c r="E42" s="81"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="159"/>
-      <c r="H42" s="179"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="57"/>
       <c r="I42" s="57"/>
       <c r="J42" s="57"/>
       <c r="M42" s="30"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B43" s="62">
         <v>287.73</v>
       </c>
       <c r="C43" s="91" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D43" s="95"/>
       <c r="E43" s="81"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="159"/>
-      <c r="H43" s="179"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="124"/>
+      <c r="H43" s="57"/>
       <c r="I43" s="57"/>
       <c r="J43" s="57"/>
       <c r="M43" s="30"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B44" s="62">
         <v>240.45</v>
       </c>
       <c r="C44" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D44" s="95"/>
       <c r="E44" s="81"/>
-      <c r="F44" s="130"/>
-      <c r="G44" s="159"/>
-      <c r="H44" s="179"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="124"/>
+      <c r="H44" s="57"/>
       <c r="I44" s="57"/>
       <c r="J44" s="57"/>
       <c r="M44" s="30"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B45" s="62">
         <v>282.17</v>
       </c>
       <c r="C45" s="91" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D45" s="95"/>
       <c r="E45" s="82"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="159"/>
-      <c r="H45" s="179"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="124"/>
+      <c r="H45" s="57"/>
       <c r="I45" s="57"/>
       <c r="J45" s="57"/>
       <c r="K45" s="57"/>
       <c r="M45" s="30"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B46" s="62">
         <v>256.10000000000002</v>
       </c>
       <c r="C46" s="91" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D46" s="95"/>
       <c r="E46" s="81"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="159"/>
-      <c r="H46" s="179"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="57"/>
       <c r="I46" s="57"/>
       <c r="J46" s="57"/>
       <c r="K46" s="57"/>
       <c r="M46" s="30"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B47" s="62">
         <v>249.98</v>
       </c>
       <c r="C47" s="91" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D47" s="95"/>
       <c r="E47" s="81"/>
-      <c r="F47" s="130"/>
-      <c r="G47" s="159"/>
-      <c r="H47" s="179"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="57"/>
       <c r="I47" s="57"/>
       <c r="J47" s="57"/>
       <c r="K47" s="57"/>
@@ -27249,61 +28378,61 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="B48" s="62">
         <v>241.92</v>
       </c>
       <c r="C48" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D48" s="95"/>
       <c r="E48" s="81"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="186">
+      <c r="F48" s="30"/>
+      <c r="G48" s="145">
         <v>93.52</v>
       </c>
-      <c r="H48" s="179" t="s">
-        <v>84</v>
+      <c r="H48" s="57" t="s">
+        <v>69</v>
       </c>
       <c r="I48" s="57"/>
       <c r="J48" s="57"/>
       <c r="K48" s="57"/>
       <c r="M48" s="30"/>
     </row>
-    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B49" s="62">
         <v>251.12</v>
       </c>
       <c r="C49" s="91" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D49" s="95"/>
       <c r="E49" s="81"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="159"/>
-      <c r="H49" s="179"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="57"/>
       <c r="I49" s="57"/>
       <c r="J49" s="57"/>
       <c r="K49" s="57"/>
       <c r="M49" s="30"/>
     </row>
-    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="127" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50" s="147">
+    <row r="50" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="114">
         <v>169.12</v>
       </c>
-      <c r="C50" s="187"/>
-      <c r="D50" s="187"/>
+      <c r="C50" s="146"/>
+      <c r="D50" s="146"/>
       <c r="E50" s="83"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="179"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="57"/>
       <c r="I50" s="57"/>
       <c r="J50" s="57"/>
       <c r="K50" s="57"/>
@@ -27311,39 +28440,39 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B51" s="62">
         <v>183.51</v>
       </c>
       <c r="C51" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D51" s="95"/>
       <c r="E51" s="30"/>
-      <c r="F51" s="130"/>
-      <c r="G51" s="159"/>
-      <c r="H51" s="179"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="57"/>
       <c r="I51" s="57"/>
       <c r="J51" s="57"/>
       <c r="K51" s="57"/>
       <c r="M51" s="30"/>
     </row>
-    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="70" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B52" s="63">
         <v>228.67</v>
       </c>
       <c r="C52" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D52" s="95"/>
       <c r="E52" s="30"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="159"/>
-      <c r="H52" s="179"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="57"/>
       <c r="I52" s="57"/>
       <c r="J52" s="57"/>
       <c r="K52" s="57"/>
@@ -27355,9 +28484,9 @@
       <c r="C53" s="91"/>
       <c r="D53" s="95"/>
       <c r="E53" s="30"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="179"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="124"/>
+      <c r="H53" s="57"/>
       <c r="I53" s="57"/>
       <c r="J53" s="57"/>
       <c r="K53" s="57"/>
@@ -27369,11 +28498,11 @@
       </c>
       <c r="B54" s="87"/>
       <c r="C54" s="86"/>
-      <c r="D54" s="164"/>
+      <c r="D54" s="129"/>
       <c r="E54" s="86"/>
       <c r="F54" s="86"/>
-      <c r="G54" s="162"/>
-      <c r="H54" s="181"/>
+      <c r="G54" s="127"/>
+      <c r="H54" s="140"/>
       <c r="I54" s="57"/>
       <c r="J54" s="57"/>
       <c r="K54" s="57"/>
@@ -27385,12 +28514,12 @@
       <c r="C55" s="91"/>
       <c r="D55" s="95"/>
       <c r="E55" s="30"/>
-      <c r="F55" s="130"/>
-      <c r="G55" s="160">
+      <c r="F55" s="30"/>
+      <c r="G55" s="125">
         <v>112.41</v>
       </c>
-      <c r="H55" s="179" t="s">
-        <v>84</v>
+      <c r="H55" s="57" t="s">
+        <v>69</v>
       </c>
       <c r="I55" s="57"/>
       <c r="J55" s="57"/>
@@ -27399,15 +28528,15 @@
     </row>
     <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="100" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="B56" s="88"/>
       <c r="C56" s="89"/>
-      <c r="D56" s="165"/>
+      <c r="D56" s="130"/>
       <c r="E56" s="89"/>
       <c r="F56" s="89"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="179"/>
+      <c r="G56" s="126"/>
+      <c r="H56" s="57"/>
       <c r="I56" s="57"/>
       <c r="J56" s="57"/>
       <c r="K56" s="57"/>
@@ -27439,8 +28568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01A3A8A-9B03-4F4D-878A-39E001164AC2}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27455,30 +28584,30 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="116" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="117"/>
+      <c r="A3" s="161" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="162"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="113" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="115"/>
+      <c r="E4" s="158" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="160"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -27488,10 +28617,10 @@
         <v>131.41</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>6</v>
@@ -27514,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="G6" s="48">
         <v>3.7394850000000002</v>
@@ -27527,9 +28656,9 @@
         <v>Reject H0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B7" s="33">
         <v>154.25</v>
@@ -27538,7 +28667,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="G7" s="48">
         <v>2.6066120000000002</v>
@@ -27562,7 +28691,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="48">
         <v>2.3386589999999998</v>
@@ -27577,7 +28706,7 @@
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="B9" s="33">
         <v>194.41</v>
@@ -27586,7 +28715,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G9" s="48">
         <v>2.1290369999999998</v>
@@ -27610,7 +28739,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="48">
         <v>2.0123769999999999</v>
@@ -27625,7 +28754,7 @@
     </row>
     <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="33">
         <v>132.34</v>
@@ -27649,7 +28778,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="33">
         <v>151.34</v>
@@ -27673,7 +28802,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="33">
         <v>159.47999999999999</v>
@@ -27682,7 +28811,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="48">
         <v>1.250445</v>
@@ -27695,9 +28824,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B14" s="33">
         <v>166.16</v>
@@ -27719,9 +28848,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B15" s="33">
         <v>130.38999999999999</v>
@@ -27730,7 +28859,7 @@
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="G15" s="48">
         <v>1.172064</v>
@@ -27745,7 +28874,7 @@
     </row>
     <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="36" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="B16" s="46">
         <v>101.16</v>
@@ -27754,7 +28883,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G16" s="48">
         <v>1.069987</v>
@@ -27769,7 +28898,7 @@
     </row>
     <row r="17" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="43">
         <v>127.84</v>
@@ -27793,30 +28922,30 @@
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="116" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="117"/>
-      <c r="E19" s="113" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="115"/>
+      <c r="A19" s="161" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="162"/>
+      <c r="E19" s="158" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="160"/>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G20" s="38" t="s">
         <v>6</v>
@@ -27830,7 +28959,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="33">
         <v>120.66</v>
@@ -27839,7 +28968,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G21" s="45">
         <v>2.7673019999999999</v>
@@ -27852,9 +28981,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="33">
         <v>116.23</v>
@@ -27863,7 +28992,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="G22" s="45">
         <v>1.7012989999999999</v>
@@ -27876,9 +29005,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" s="33">
         <v>162.13999999999999</v>
@@ -27887,7 +29016,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="G23" s="45">
         <v>1.0907690000000001</v>
@@ -27902,7 +29031,7 @@
     </row>
     <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" s="33">
         <v>110.3</v>
@@ -27911,7 +29040,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="G24" s="45">
         <v>0.83342099999999997</v>
@@ -27924,9 +29053,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="B25" s="33">
         <v>121.32</v>
@@ -27935,7 +29064,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="G25" s="45">
         <v>0.80219499999999999</v>
@@ -27948,9 +29077,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B26" s="33">
         <v>126.75</v>
@@ -27959,7 +29088,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G26" s="45">
         <v>0.59222399999999997</v>
@@ -27972,9 +29101,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="46">
         <v>103.73</v>
@@ -27983,7 +29112,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="G27" s="45">
         <v>0.53623200000000004</v>
@@ -27996,9 +29125,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B28" s="33">
         <v>139.63999999999999</v>
@@ -28007,7 +29136,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G28" s="45">
         <v>0.326262</v>
@@ -28022,7 +29151,7 @@
     </row>
     <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B29" s="33">
         <v>110.61</v>
@@ -28031,7 +29160,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G29" s="45">
         <v>0.31118699999999999</v>
@@ -28046,7 +29175,7 @@
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" s="33">
         <v>110.09</v>
@@ -28055,7 +29184,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="44">
         <v>0.30149599999999999</v>
@@ -28068,9 +29197,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B31" s="43">
         <v>115.05</v>
@@ -28078,35 +29207,35 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="116" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="117"/>
-      <c r="E36" s="113" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="115"/>
+      <c r="A36" s="161" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="162"/>
+      <c r="E36" s="158" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="160"/>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B37" s="32" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>6</v>
@@ -28129,7 +29258,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G38" s="45">
         <v>3.374924</v>
@@ -28142,7 +29271,7 @@
         <v>Reject H0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
@@ -28153,7 +29282,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="G39" s="45">
         <v>2.8052980000000001</v>
@@ -28168,7 +29297,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B40" s="33">
         <v>129.34</v>
@@ -28177,7 +29306,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G40" s="45">
         <v>2.5847380000000002</v>
@@ -28216,7 +29345,7 @@
     </row>
     <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="B42" s="33">
         <v>138</v>
@@ -28225,7 +29354,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G42" s="45">
         <v>2.0743529999999999</v>
@@ -28240,7 +29369,7 @@
     </row>
     <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B43" s="33">
         <v>149.68</v>
@@ -28264,7 +29393,7 @@
     </row>
     <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="33">
         <v>182.11</v>
@@ -28288,7 +29417,7 @@
     </row>
     <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" s="33">
         <v>130.18</v>
@@ -28297,7 +29426,7 @@
         <v>7</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="G45" s="45">
         <v>1.6058920000000001</v>
@@ -28310,9 +29439,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" s="33">
         <v>162.41</v>
@@ -28321,7 +29450,7 @@
         <v>8</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="G46" s="45">
         <v>1.50108</v>
@@ -28336,7 +29465,7 @@
     </row>
     <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B47" s="33">
         <v>135.38999999999999</v>
@@ -28345,7 +29474,7 @@
         <v>9</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G47" s="45">
         <v>1.4755609999999999</v>
@@ -28358,9 +29487,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A48" s="36" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="B48" s="46">
         <v>97.95</v>
@@ -28369,7 +29498,7 @@
         <v>10</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G48" s="45">
         <v>1.2923690000000001</v>
@@ -28382,9 +29511,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B49" s="33">
         <v>167.91</v>
@@ -28393,7 +29522,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G49" s="44">
         <v>1.2586470000000001</v>
@@ -28408,7 +29537,7 @@
     </row>
     <row r="50" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B50" s="43">
         <v>134.75</v>
@@ -28416,30 +29545,30 @@
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="116" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="117"/>
-      <c r="E52" s="113" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" s="114"/>
-      <c r="G52" s="114"/>
-      <c r="H52" s="114"/>
-      <c r="I52" s="115"/>
+      <c r="A52" s="161" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="162"/>
+      <c r="E52" s="158" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="159"/>
+      <c r="G52" s="159"/>
+      <c r="H52" s="159"/>
+      <c r="I52" s="160"/>
     </row>
     <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="34" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B53" s="32" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>6</v>
@@ -28451,9 +29580,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B54" s="33">
         <v>119.2</v>
@@ -28462,7 +29591,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="G54" s="45">
         <v>1.724988</v>
@@ -28477,7 +29606,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B55" s="33">
         <v>120.73</v>
@@ -28486,7 +29615,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G55" s="45">
         <v>1.134917</v>
@@ -28499,9 +29628,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B56" s="33">
         <v>131.61000000000001</v>
@@ -28510,7 +29639,7 @@
         <v>2</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="G56" s="45">
         <v>1.1166119999999999</v>
@@ -28525,7 +29654,7 @@
     </row>
     <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B57" s="33">
         <v>114.43</v>
@@ -28534,7 +29663,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="G57" s="45">
         <v>0.69236399999999998</v>
@@ -28547,9 +29676,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="B58" s="33">
         <v>131.22999999999999</v>
@@ -28558,7 +29687,7 @@
         <v>4</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G58" s="45">
         <v>0.619143</v>
@@ -28571,9 +29700,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B59" s="33">
         <v>144.07</v>
@@ -28582,7 +29711,7 @@
         <v>5</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G59" s="45">
         <v>0.54700000000000004</v>
@@ -28597,7 +29726,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B60" s="46">
         <v>107.66</v>
@@ -28606,7 +29735,7 @@
         <v>6</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G60" s="45">
         <v>0.389791</v>
@@ -28619,9 +29748,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B61" s="33">
         <v>115.36</v>
@@ -28630,7 +29759,7 @@
         <v>7</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="G61" s="45">
         <v>0.36502499999999999</v>
@@ -28645,7 +29774,7 @@
     </row>
     <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B62" s="33">
         <v>114.05</v>
@@ -28654,7 +29783,7 @@
         <v>8</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G62" s="45">
         <v>0.320878</v>
@@ -28667,9 +29796,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B63" s="33">
         <v>115.89</v>
@@ -28678,7 +29807,7 @@
         <v>9</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G63" s="44">
         <v>0.30257299999999998</v>
@@ -28691,9 +29820,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B64" s="43">
         <v>122.27</v>
@@ -28701,13 +29830,13 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="29" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="38" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B68" s="38" t="s">
         <v>8</v>
@@ -28722,9 +29851,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B69" s="33">
         <v>142.5</v>
@@ -28740,9 +29869,9 @@
         <v>Fail to Reject H0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="8" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="B70" s="43">
         <v>112</v>
@@ -28760,35 +29889,35 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="29" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="116" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" s="117"/>
-      <c r="E74" s="113" t="s">
-        <v>77</v>
-      </c>
-      <c r="F74" s="114"/>
-      <c r="G74" s="114"/>
-      <c r="H74" s="114"/>
-      <c r="I74" s="115"/>
+      <c r="A74" s="161" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="162"/>
+      <c r="E74" s="158" t="s">
+        <v>62</v>
+      </c>
+      <c r="F74" s="159"/>
+      <c r="G74" s="159"/>
+      <c r="H74" s="159"/>
+      <c r="I74" s="160"/>
     </row>
     <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="34" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B75" s="32" t="s">
         <v>3</v>
       </c>
       <c r="E75" s="38" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F75" s="38" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G75" s="38" t="s">
         <v>6</v>
@@ -28802,7 +29931,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="B76" s="33">
         <v>45.91</v>
@@ -28811,7 +29940,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="G76" s="45">
         <v>0.59305399999999997</v>
@@ -28826,7 +29955,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="B77" s="33">
         <v>46.2</v>
@@ -28835,7 +29964,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="G77" s="45">
         <v>0.554697</v>
@@ -28850,7 +29979,7 @@
     </row>
     <row r="78" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="B78" s="33">
         <v>44.25</v>
@@ -28859,7 +29988,7 @@
         <v>2</v>
       </c>
       <c r="F78" s="39" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G78" s="44">
         <v>0.33930900000000003</v>
@@ -28888,19 +30017,20 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="E19:I19"/>
     <mergeCell ref="E36:I36"/>
     <mergeCell ref="E52:I52"/>
     <mergeCell ref="E74:I74"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -28908,8 +30038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACF24EC-AC38-4423-BF1A-7F8F91A240D4}">
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28920,42 +30050,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="118" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="119"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="121" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="176"/>
+      <c r="A1" s="163" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="164"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="166" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="164"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="166" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="168"/>
       <c r="I1" s="54"/>
       <c r="J1" s="54"/>
       <c r="K1" s="54"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B2" s="61">
         <v>131.41</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D2" s="92"/>
       <c r="E2" s="57"/>
       <c r="F2" s="91"/>
       <c r="G2" s="92"/>
-      <c r="H2" s="177"/>
+      <c r="H2" s="66"/>
       <c r="I2" s="66"/>
       <c r="J2" s="66"/>
       <c r="K2" s="66"/>
@@ -28963,19 +30093,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B3" s="55">
         <v>143.86000000000001</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D3" s="93"/>
       <c r="E3" s="59"/>
       <c r="F3" s="94"/>
       <c r="G3" s="99"/>
-      <c r="H3" s="178"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="67"/>
       <c r="J3" s="67"/>
       <c r="K3" s="67"/>
@@ -28984,19 +30114,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B4" s="55">
         <v>154.25</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D4" s="95"/>
       <c r="E4" s="30"/>
       <c r="F4" s="91"/>
       <c r="G4" s="92"/>
-      <c r="H4" s="179"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="57"/>
       <c r="J4" s="57"/>
       <c r="K4" s="57"/>
@@ -29005,19 +30135,19 @@
     </row>
     <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B5" s="55">
         <v>125.34</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D5" s="95"/>
       <c r="E5" s="30"/>
       <c r="F5" s="91"/>
       <c r="G5" s="92"/>
-      <c r="H5" s="179"/>
+      <c r="H5" s="57"/>
       <c r="I5" s="57"/>
       <c r="J5" s="57"/>
       <c r="K5" s="57"/>
@@ -29026,19 +30156,19 @@
     </row>
     <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B6" s="55">
         <v>194.41</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="D6" s="95"/>
       <c r="E6" s="30"/>
       <c r="F6" s="91"/>
       <c r="G6" s="92"/>
-      <c r="H6" s="179"/>
+      <c r="H6" s="57"/>
       <c r="I6" s="57"/>
       <c r="J6" s="57"/>
       <c r="K6" s="57"/>
@@ -29047,36 +30177,34 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B7" s="55">
         <v>147.52000000000001</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D7" s="95"/>
-      <c r="E7" s="130"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="97"/>
       <c r="G7" s="95"/>
-      <c r="H7" s="152"/>
       <c r="M7" s="59"/>
     </row>
     <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="69" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B8" s="55">
         <v>132.34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="173"/>
-      <c r="E8" s="132"/>
+        <v>68</v>
+      </c>
+      <c r="D8" s="95"/>
       <c r="F8" s="97"/>
       <c r="G8" s="92"/>
-      <c r="H8" s="179"/>
+      <c r="H8" s="57"/>
       <c r="I8" s="57"/>
       <c r="J8" s="57"/>
       <c r="K8" s="57"/>
@@ -29084,19 +30212,19 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B9" s="55">
         <v>151.34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="173"/>
-      <c r="E9" s="133"/>
+        <v>68</v>
+      </c>
+      <c r="D9" s="95"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="97"/>
       <c r="G9" s="92"/>
-      <c r="H9" s="179"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="57"/>
       <c r="J9" s="57"/>
       <c r="K9" s="57"/>
@@ -29104,77 +30232,77 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B10" s="55">
         <v>159.47999999999999</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="173"/>
-      <c r="E10" s="133"/>
+        <v>68</v>
+      </c>
+      <c r="D10" s="95"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="97"/>
       <c r="G10" s="92"/>
-      <c r="H10" s="179"/>
+      <c r="H10" s="57"/>
       <c r="I10" s="57"/>
       <c r="J10" s="57"/>
       <c r="K10" s="57"/>
       <c r="M10" s="59"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B11" s="55">
         <v>166.16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="173"/>
-      <c r="E11" s="133"/>
+        <v>68</v>
+      </c>
+      <c r="D11" s="95"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="91"/>
       <c r="G11" s="92"/>
-      <c r="H11" s="179"/>
+      <c r="H11" s="57"/>
       <c r="I11" s="57"/>
       <c r="J11" s="57"/>
       <c r="K11" s="57"/>
       <c r="M11" s="59"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B12" s="55">
         <v>130.38999999999999</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="174"/>
-      <c r="E12" s="134"/>
+        <v>68</v>
+      </c>
+      <c r="D12" s="96"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="91"/>
       <c r="G12" s="92"/>
-      <c r="H12" s="179"/>
+      <c r="H12" s="57"/>
       <c r="I12" s="57"/>
       <c r="J12" s="57"/>
       <c r="K12" s="57"/>
       <c r="M12" s="59"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="104" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="B13" s="78">
         <v>101.16</v>
       </c>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="131"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="110"/>
       <c r="F13" s="91"/>
       <c r="G13" s="92"/>
-      <c r="H13" s="179"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="57"/>
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
@@ -29182,19 +30310,19 @@
     </row>
     <row r="14" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="17" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="B14" s="63">
         <v>127.84</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D14" s="95"/>
       <c r="E14" s="71"/>
       <c r="F14" s="91"/>
       <c r="G14" s="92"/>
-      <c r="H14" s="179"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="57"/>
       <c r="J14" s="57"/>
       <c r="K14" s="57"/>
@@ -29205,10 +30333,10 @@
       <c r="B15" s="55"/>
       <c r="C15" s="91"/>
       <c r="D15" s="95"/>
-      <c r="E15" s="167"/>
+      <c r="E15" s="132"/>
       <c r="F15" s="1"/>
       <c r="G15" s="95"/>
-      <c r="H15" s="179"/>
+      <c r="H15" s="57"/>
       <c r="I15" s="57"/>
       <c r="J15" s="57"/>
       <c r="K15" s="57"/>
@@ -29217,19 +30345,19 @@
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B16" s="61">
         <v>120.66</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D16" s="95"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="179"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="57"/>
       <c r="I16" s="57"/>
       <c r="J16" s="57"/>
       <c r="K16" s="57"/>
@@ -29238,21 +30366,21 @@
     </row>
     <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B17" s="55">
         <v>116.23</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D17" s="95"/>
       <c r="E17" s="103">
         <v>142.5</v>
       </c>
       <c r="F17" s="52"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="179"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="57"/>
       <c r="I17" s="57"/>
       <c r="J17" s="57"/>
       <c r="K17" s="57"/>
@@ -29261,23 +30389,23 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B18" s="55">
         <v>162.13999999999999</v>
       </c>
       <c r="C18" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D18" s="95"/>
-      <c r="E18" s="168">
+      <c r="E18" s="133">
         <v>110.5</v>
       </c>
       <c r="F18" s="30">
         <v>0.60340000000000005</v>
       </c>
-      <c r="G18" s="167"/>
-      <c r="H18" s="179"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="57"/>
       <c r="I18" s="57"/>
       <c r="J18" s="57"/>
       <c r="K18" s="57"/>
@@ -29285,117 +30413,117 @@
     </row>
     <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B19" s="55">
         <v>110.3</v>
       </c>
       <c r="C19" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D19" s="95"/>
       <c r="E19" s="73"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="179"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="57"/>
       <c r="I19" s="57"/>
       <c r="J19" s="57"/>
       <c r="K19" s="57"/>
       <c r="M19" s="65"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B20" s="55">
         <v>121.32</v>
       </c>
       <c r="C20" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D20" s="95"/>
       <c r="E20" s="74"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="179"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="57"/>
       <c r="I20" s="57"/>
       <c r="J20" s="57"/>
       <c r="K20" s="57"/>
       <c r="M20" s="65"/>
     </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B21" s="55">
         <v>126.75</v>
       </c>
       <c r="C21" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D21" s="95"/>
       <c r="E21" s="73"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="177"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="66"/>
       <c r="I21" s="66"/>
       <c r="J21" s="66"/>
       <c r="K21" s="66"/>
       <c r="M21" s="65"/>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="123" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="124">
+      <c r="A22" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="106">
         <v>103.73</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="179"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="57"/>
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
       <c r="K22" s="57"/>
       <c r="M22" s="65"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B23" s="55">
         <v>139.63999999999999</v>
       </c>
       <c r="C23" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D23" s="95"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="179"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="57"/>
       <c r="I23" s="57"/>
       <c r="J23" s="57"/>
       <c r="K23" s="57"/>
       <c r="M23" s="65"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B24" s="55">
         <v>110.61</v>
       </c>
       <c r="C24" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D24" s="95"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="179"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="57"/>
       <c r="I24" s="57"/>
       <c r="J24" s="57"/>
       <c r="K24" s="57"/>
@@ -29403,39 +30531,39 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B25" s="55">
         <v>110.09</v>
       </c>
       <c r="C25" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D25" s="95"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="179"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="57"/>
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="K25" s="57"/>
       <c r="M25" s="65"/>
     </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="125" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="126">
+    <row r="26" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="56">
         <v>115.05</v>
       </c>
       <c r="C26" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="136"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="179"/>
+        <v>68</v>
+      </c>
+      <c r="D26" s="58"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="57"/>
       <c r="I26" s="57"/>
       <c r="J26" s="57"/>
       <c r="K26" s="57"/>
@@ -29447,9 +30575,9 @@
       <c r="C27" s="91"/>
       <c r="D27" s="95"/>
       <c r="E27" s="57"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="179"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="57"/>
       <c r="I27" s="57"/>
       <c r="J27" s="57"/>
       <c r="K27" s="57"/>
@@ -29457,19 +30585,19 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="B28" s="61">
         <v>139.97999999999999</v>
       </c>
       <c r="C28" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D28" s="95"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="179"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="57"/>
       <c r="I28" s="57"/>
       <c r="J28" s="57"/>
       <c r="K28" s="57"/>
@@ -29477,19 +30605,19 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B29" s="62">
         <v>157.72999999999999</v>
       </c>
       <c r="C29" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D29" s="95"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="179"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="57"/>
       <c r="I29" s="57"/>
       <c r="J29" s="57"/>
       <c r="K29" s="57"/>
@@ -29498,59 +30626,58 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B30" s="62">
         <v>129.34</v>
       </c>
       <c r="C30" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D30" s="95"/>
       <c r="E30" s="30"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="179"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="57"/>
       <c r="I30" s="57"/>
       <c r="J30" s="57"/>
       <c r="K30" s="57"/>
       <c r="M30" s="65"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B31" s="62">
         <v>140.07</v>
       </c>
       <c r="C31" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D31" s="95"/>
       <c r="E31" s="30"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="152"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="132"/>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B32" s="62">
         <v>138</v>
       </c>
       <c r="C32" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D32" s="95"/>
       <c r="E32" s="30"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="183">
+      <c r="F32" s="65"/>
+      <c r="G32" s="142">
         <v>40.909999999999997</v>
       </c>
-      <c r="H32" s="179" t="s">
-        <v>83</v>
+      <c r="H32" s="57" t="s">
+        <v>68</v>
       </c>
       <c r="I32" s="57"/>
       <c r="J32" s="57"/>
@@ -29558,151 +30685,150 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B33" s="55">
         <v>149.68</v>
       </c>
       <c r="C33" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="136"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="179"/>
+        <v>68</v>
+      </c>
+      <c r="D33" s="58"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="57"/>
       <c r="I33" s="57"/>
       <c r="J33" s="57"/>
       <c r="M33" s="30"/>
       <c r="N33" s="68"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" s="135">
+        <v>126</v>
+      </c>
+      <c r="B34" s="55">
         <v>182.11</v>
       </c>
-      <c r="C34" s="145" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="173"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="130"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="179"/>
+      <c r="C34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="95"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="57"/>
       <c r="I34" s="57"/>
       <c r="J34" s="57"/>
       <c r="M34" s="30"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="135">
+        <v>118</v>
+      </c>
+      <c r="B35" s="55">
         <v>130.18</v>
       </c>
-      <c r="C35" s="145" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="173"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="179"/>
+      <c r="C35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="95"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="57"/>
       <c r="I35" s="57"/>
       <c r="J35" s="57"/>
       <c r="M35" s="30"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="135">
+        <v>119</v>
+      </c>
+      <c r="B36" s="55">
         <v>162.41</v>
       </c>
-      <c r="C36" s="145" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="173"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="170"/>
-      <c r="H36" s="179"/>
+      <c r="C36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="95"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="57"/>
       <c r="I36" s="57"/>
       <c r="J36" s="57"/>
       <c r="M36" s="30"/>
     </row>
-    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="135">
+        <v>127</v>
+      </c>
+      <c r="B37" s="55">
         <v>135.38999999999999</v>
       </c>
-      <c r="C37" s="146" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="174"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="179"/>
+      <c r="C37" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="96"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="57"/>
       <c r="I37" s="57"/>
       <c r="J37" s="57"/>
       <c r="M37" s="30"/>
     </row>
-    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="104" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="148">
+        <v>128</v>
+      </c>
+      <c r="B38" s="78">
         <v>97.95</v>
       </c>
-      <c r="C38" s="149"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="179"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="135"/>
+      <c r="H38" s="57"/>
       <c r="I38" s="57"/>
       <c r="J38" s="57"/>
       <c r="M38" s="30"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B39" s="62">
         <v>167.91</v>
       </c>
       <c r="C39" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D39" s="95"/>
       <c r="E39" s="71"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="170"/>
-      <c r="H39" s="179"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="135"/>
+      <c r="H39" s="57"/>
       <c r="I39" s="57"/>
       <c r="J39" s="57"/>
       <c r="M39" s="30"/>
     </row>
-    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="17" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B40" s="63">
         <v>134.75</v>
       </c>
       <c r="C40" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D40" s="95"/>
       <c r="E40" s="71"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="152"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="132"/>
       <c r="I40" s="57"/>
       <c r="J40" s="57"/>
       <c r="M40" s="30"/>
@@ -29713,55 +30839,54 @@
       <c r="C41" s="91"/>
       <c r="D41" s="95"/>
       <c r="E41" s="71"/>
-      <c r="G41" s="167"/>
-      <c r="H41" s="152"/>
+      <c r="G41" s="132"/>
       <c r="I41" s="57"/>
       <c r="J41" s="57"/>
       <c r="M41" s="30"/>
     </row>
     <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B42" s="61">
         <v>119.2</v>
       </c>
       <c r="C42" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D42" s="95"/>
       <c r="E42" s="84">
         <v>112</v>
       </c>
-      <c r="F42" s="130">
+      <c r="F42" s="30">
         <v>0.63780000000000003</v>
       </c>
       <c r="G42" s="71"/>
-      <c r="H42" s="179"/>
+      <c r="H42" s="57"/>
       <c r="I42" s="57"/>
       <c r="J42" s="57"/>
       <c r="M42" s="30"/>
     </row>
     <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B43" s="62">
         <v>120.73</v>
       </c>
       <c r="C43" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D43" s="95"/>
-      <c r="E43" s="182">
+      <c r="E43" s="141">
         <v>141</v>
       </c>
-      <c r="F43" s="166"/>
-      <c r="G43" s="144">
+      <c r="F43" s="131"/>
+      <c r="G43" s="116">
         <v>46.2</v>
       </c>
-      <c r="H43" s="179" t="s">
-        <v>83</v>
+      <c r="H43" s="57" t="s">
+        <v>68</v>
       </c>
       <c r="I43" s="57"/>
       <c r="J43" s="57"/>
@@ -29769,140 +30894,140 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B44" s="62">
         <v>131.61000000000001</v>
       </c>
       <c r="C44" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D44" s="95"/>
       <c r="E44" s="81"/>
-      <c r="F44" s="130"/>
+      <c r="F44" s="30"/>
       <c r="G44" s="81"/>
-      <c r="H44" s="179"/>
+      <c r="H44" s="57"/>
       <c r="I44" s="57"/>
       <c r="J44" s="57"/>
       <c r="M44" s="30"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B45" s="62">
         <v>114.43</v>
       </c>
       <c r="C45" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D45" s="95"/>
       <c r="E45" s="82"/>
-      <c r="F45" s="130"/>
+      <c r="F45" s="30"/>
       <c r="G45" s="81"/>
-      <c r="H45" s="179"/>
+      <c r="H45" s="57"/>
       <c r="I45" s="57"/>
       <c r="J45" s="57"/>
       <c r="K45" s="57"/>
       <c r="M45" s="30"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B46" s="62">
         <v>131.22999999999999</v>
       </c>
       <c r="C46" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D46" s="95"/>
       <c r="E46" s="81"/>
-      <c r="F46" s="130"/>
+      <c r="F46" s="30"/>
       <c r="G46" s="81"/>
-      <c r="H46" s="179"/>
+      <c r="H46" s="57"/>
       <c r="I46" s="57"/>
       <c r="J46" s="57"/>
       <c r="K46" s="57"/>
       <c r="M46" s="30"/>
     </row>
-    <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B47" s="62">
         <v>144.07</v>
       </c>
       <c r="C47" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D47" s="95"/>
       <c r="E47" s="81"/>
-      <c r="F47" s="130"/>
+      <c r="F47" s="30"/>
       <c r="G47" s="81"/>
-      <c r="H47" s="179"/>
+      <c r="H47" s="57"/>
       <c r="I47" s="57"/>
       <c r="J47" s="57"/>
       <c r="K47" s="57"/>
       <c r="M47" s="30"/>
     </row>
     <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="127" t="s">
-        <v>128</v>
-      </c>
-      <c r="B48" s="142">
+      <c r="A48" s="107" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="114">
         <v>107.66</v>
       </c>
-      <c r="C48" s="143"/>
-      <c r="D48" s="143"/>
-      <c r="E48" s="144"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="184">
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="143">
         <v>41.64</v>
       </c>
-      <c r="H48" s="180" t="s">
-        <v>135</v>
+      <c r="H48" s="139" t="s">
+        <v>72</v>
       </c>
       <c r="I48" s="57"/>
       <c r="J48" s="57"/>
       <c r="K48" s="57"/>
       <c r="M48" s="30"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49" s="135">
+        <v>133</v>
+      </c>
+      <c r="B49" s="55">
         <v>115.36</v>
       </c>
       <c r="C49" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="141"/>
-      <c r="E49" s="140"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="159"/>
-      <c r="H49" s="179"/>
+        <v>68</v>
+      </c>
+      <c r="D49" s="53"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="57"/>
       <c r="I49" s="57"/>
       <c r="J49" s="57"/>
       <c r="K49" s="57"/>
       <c r="M49" s="30"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B50" s="55">
         <v>114.05</v>
       </c>
       <c r="C50" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" s="136"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="179"/>
+        <v>68</v>
+      </c>
+      <c r="D50" s="58"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="57"/>
       <c r="I50" s="57"/>
       <c r="J50" s="57"/>
       <c r="K50" s="57"/>
@@ -29910,39 +31035,39 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B51" s="62">
         <v>115.89</v>
       </c>
       <c r="C51" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D51" s="95"/>
       <c r="E51" s="30"/>
-      <c r="F51" s="130"/>
-      <c r="G51" s="159"/>
-      <c r="H51" s="179"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="57"/>
       <c r="I51" s="57"/>
       <c r="J51" s="57"/>
       <c r="K51" s="57"/>
       <c r="M51" s="30"/>
     </row>
-    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="70" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B52" s="63">
         <v>122.27</v>
       </c>
       <c r="C52" s="90" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D52" s="95"/>
       <c r="E52" s="30"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="159"/>
-      <c r="H52" s="179"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="57"/>
       <c r="I52" s="57"/>
       <c r="J52" s="57"/>
       <c r="K52" s="57"/>
@@ -29954,9 +31079,9 @@
       <c r="C53" s="91"/>
       <c r="D53" s="95"/>
       <c r="E53" s="30"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="179"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="124"/>
+      <c r="H53" s="57"/>
       <c r="I53" s="57"/>
       <c r="J53" s="57"/>
       <c r="K53" s="57"/>
@@ -29968,11 +31093,11 @@
       </c>
       <c r="B54" s="87"/>
       <c r="C54" s="86"/>
-      <c r="D54" s="164"/>
+      <c r="D54" s="129"/>
       <c r="E54" s="86"/>
       <c r="F54" s="86"/>
-      <c r="G54" s="162"/>
-      <c r="H54" s="181"/>
+      <c r="G54" s="127"/>
+      <c r="H54" s="140"/>
       <c r="I54" s="57"/>
       <c r="J54" s="57"/>
       <c r="K54" s="57"/>
@@ -29984,12 +31109,12 @@
       <c r="C55" s="91"/>
       <c r="D55" s="95"/>
       <c r="E55" s="30"/>
-      <c r="F55" s="130"/>
-      <c r="G55" s="185">
+      <c r="F55" s="30"/>
+      <c r="G55" s="144">
         <v>44.25</v>
       </c>
-      <c r="H55" s="179" t="s">
-        <v>83</v>
+      <c r="H55" s="57" t="s">
+        <v>68</v>
       </c>
       <c r="I55" s="57"/>
       <c r="J55" s="57"/>
@@ -29998,15 +31123,15 @@
     </row>
     <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="100" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="B56" s="88"/>
       <c r="C56" s="89"/>
-      <c r="D56" s="165"/>
+      <c r="D56" s="130"/>
       <c r="E56" s="89"/>
       <c r="F56" s="89"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="179"/>
+      <c r="G56" s="126"/>
+      <c r="H56" s="57"/>
       <c r="I56" s="57"/>
       <c r="J56" s="57"/>
       <c r="K56" s="57"/>
